--- a/long.xlsx
+++ b/long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Inequality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D0937-7B0C-4119-8782-D84EF7442445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59FCF7-73F2-4F47-9E13-40352BD4FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21AA7EFB-4594-48F7-9109-5089710FF25D}"/>
   </bookViews>
@@ -298,8 +298,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -327,9 +335,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,8 +660,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64931069-1B4A-4B0A-B91B-4C056A084309}">
   <dimension ref="A1:BH231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222:A231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,185 +673,185 @@
     <col min="3" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -42612,5 +42627,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>